--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efna1-Epha7.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efna1-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Epha7</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.265623769396</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H2">
-        <v>23.265623769396</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I2">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J2">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.10958670151065</v>
+        <v>0.03360366666666666</v>
       </c>
       <c r="N2">
-        <v>1.10958670151065</v>
+        <v>0.100811</v>
       </c>
       <c r="O2">
-        <v>0.8590632853958436</v>
+        <v>0.0235667354422325</v>
       </c>
       <c r="P2">
-        <v>0.8590632853958436</v>
+        <v>0.0235667354422325</v>
       </c>
       <c r="Q2">
-        <v>25.81522673687189</v>
+        <v>0.7931216487295554</v>
       </c>
       <c r="R2">
-        <v>25.81522673687189</v>
+        <v>7.138094838565999</v>
       </c>
       <c r="S2">
-        <v>0.7587452902612131</v>
+        <v>0.02079699932677872</v>
       </c>
       <c r="T2">
-        <v>0.7587452902612131</v>
+        <v>0.02079699932677872</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.265623769396</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H3">
-        <v>23.265623769396</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I3">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J3">
-        <v>0.8832239756487724</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.182037233970854</v>
+        <v>1.151356333333333</v>
       </c>
       <c r="N3">
-        <v>0.182037233970854</v>
+        <v>3.454069</v>
       </c>
       <c r="O3">
-        <v>0.1409367146041564</v>
+        <v>0.8074627800757513</v>
       </c>
       <c r="P3">
-        <v>0.1409367146041564</v>
+        <v>0.8074627800757513</v>
       </c>
       <c r="Q3">
-        <v>4.235209797587402</v>
+        <v>27.17458313185711</v>
       </c>
       <c r="R3">
-        <v>4.235209797587402</v>
+        <v>244.571248186714</v>
       </c>
       <c r="S3">
-        <v>0.1244786853875594</v>
+        <v>0.7125638141437668</v>
       </c>
       <c r="T3">
-        <v>0.1244786853875594</v>
+        <v>0.7125638141437667</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.57126938261837</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H4">
-        <v>2.57126938261837</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I4">
-        <v>0.09761211601674237</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J4">
-        <v>0.09761211601674237</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.10958670151065</v>
+        <v>0.009467333333333333</v>
       </c>
       <c r="N4">
-        <v>1.10958670151065</v>
+        <v>0.028402</v>
       </c>
       <c r="O4">
-        <v>0.8590632853958436</v>
+        <v>0.00663957722897588</v>
       </c>
       <c r="P4">
-        <v>0.8590632853958436</v>
+        <v>0.00663957722897588</v>
       </c>
       <c r="Q4">
-        <v>2.853046312954842</v>
+        <v>0.2234502293124444</v>
       </c>
       <c r="R4">
-        <v>2.853046312954842</v>
+        <v>2.011052063812</v>
       </c>
       <c r="S4">
-        <v>0.08385498507978295</v>
+        <v>0.005859245269654793</v>
       </c>
       <c r="T4">
-        <v>0.08385498507978295</v>
+        <v>0.005859245269654792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,57 +717,57 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.57126938261837</v>
+        <v>23.60223533333333</v>
       </c>
       <c r="H5">
-        <v>2.57126938261837</v>
+        <v>70.80670599999999</v>
       </c>
       <c r="I5">
-        <v>0.09761211601674237</v>
+        <v>0.8824726436021215</v>
       </c>
       <c r="J5">
-        <v>0.09761211601674237</v>
+        <v>0.8824726436021214</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.182037233970854</v>
+        <v>0.2314666666666667</v>
       </c>
       <c r="N5">
-        <v>0.182037233970854</v>
+        <v>0.6944</v>
       </c>
       <c r="O5">
-        <v>0.1409367146041564</v>
+        <v>0.1623309072530403</v>
       </c>
       <c r="P5">
-        <v>0.1409367146041564</v>
+        <v>0.1623309072530403</v>
       </c>
       <c r="Q5">
-        <v>0.4680667662057935</v>
+        <v>5.463130738488888</v>
       </c>
       <c r="R5">
-        <v>0.4680667662057935</v>
+        <v>49.16817664639999</v>
       </c>
       <c r="S5">
-        <v>0.01375713093695942</v>
+        <v>0.1432525848619213</v>
       </c>
       <c r="T5">
-        <v>0.01375713093695942</v>
+        <v>0.1432525848619213</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +776,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.504809984278132</v>
+        <v>2.633202</v>
       </c>
       <c r="H6">
-        <v>0.504809984278132</v>
+        <v>7.899606</v>
       </c>
       <c r="I6">
-        <v>0.01916390833448524</v>
+        <v>0.09845375648791208</v>
       </c>
       <c r="J6">
-        <v>0.01916390833448524</v>
+        <v>0.09845375648791205</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.10958670151065</v>
+        <v>0.03360366666666666</v>
       </c>
       <c r="N6">
-        <v>1.10958670151065</v>
+        <v>0.100811</v>
       </c>
       <c r="O6">
-        <v>0.8590632853958436</v>
+        <v>0.0235667354422325</v>
       </c>
       <c r="P6">
-        <v>0.8590632853958436</v>
+        <v>0.0235667354422325</v>
       </c>
       <c r="Q6">
-        <v>0.5601304453448155</v>
+        <v>0.08848524227399999</v>
       </c>
       <c r="R6">
-        <v>0.5601304453448155</v>
+        <v>0.796367180466</v>
       </c>
       <c r="S6">
-        <v>0.01646301005484768</v>
+        <v>0.002320233632444605</v>
       </c>
       <c r="T6">
-        <v>0.01646301005484768</v>
+        <v>0.002320233632444604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,55 +838,427 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.633202</v>
+      </c>
+      <c r="H7">
+        <v>7.899606</v>
+      </c>
+      <c r="I7">
+        <v>0.09845375648791208</v>
+      </c>
+      <c r="J7">
+        <v>0.09845375648791205</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.151356333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.454069</v>
+      </c>
+      <c r="O7">
+        <v>0.8074627800757513</v>
+      </c>
+      <c r="P7">
+        <v>0.8074627800757513</v>
+      </c>
+      <c r="Q7">
+        <v>3.031753799646001</v>
+      </c>
+      <c r="R7">
+        <v>27.28578419681401</v>
+      </c>
+      <c r="S7">
+        <v>0.07949774392263052</v>
+      </c>
+      <c r="T7">
+        <v>0.0794977439226305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.633202</v>
+      </c>
+      <c r="H8">
+        <v>7.899606</v>
+      </c>
+      <c r="I8">
+        <v>0.09845375648791208</v>
+      </c>
+      <c r="J8">
+        <v>0.09845375648791205</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.009467333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.028402</v>
+      </c>
+      <c r="O8">
+        <v>0.00663957722897588</v>
+      </c>
+      <c r="P8">
+        <v>0.00663957722897588</v>
+      </c>
+      <c r="Q8">
+        <v>0.024929401068</v>
+      </c>
+      <c r="R8">
+        <v>0.224364609612</v>
+      </c>
+      <c r="S8">
+        <v>0.0006536913196842773</v>
+      </c>
+      <c r="T8">
+        <v>0.0006536913196842771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.504809984278132</v>
-      </c>
-      <c r="H7">
-        <v>0.504809984278132</v>
-      </c>
-      <c r="I7">
-        <v>0.01916390833448524</v>
-      </c>
-      <c r="J7">
-        <v>0.01916390833448524</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.182037233970854</v>
-      </c>
-      <c r="N7">
-        <v>0.182037233970854</v>
-      </c>
-      <c r="O7">
-        <v>0.1409367146041564</v>
-      </c>
-      <c r="P7">
-        <v>0.1409367146041564</v>
-      </c>
-      <c r="Q7">
-        <v>0.09189421321886143</v>
-      </c>
-      <c r="R7">
-        <v>0.09189421321886143</v>
-      </c>
-      <c r="S7">
-        <v>0.00270089827963756</v>
-      </c>
-      <c r="T7">
-        <v>0.00270089827963756</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.633202</v>
+      </c>
+      <c r="H9">
+        <v>7.899606</v>
+      </c>
+      <c r="I9">
+        <v>0.09845375648791208</v>
+      </c>
+      <c r="J9">
+        <v>0.09845375648791205</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.2314666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.6944</v>
+      </c>
+      <c r="O9">
+        <v>0.1623309072530403</v>
+      </c>
+      <c r="P9">
+        <v>0.1623309072530403</v>
+      </c>
+      <c r="Q9">
+        <v>0.6094984896000001</v>
+      </c>
+      <c r="R9">
+        <v>5.485486406400001</v>
+      </c>
+      <c r="S9">
+        <v>0.01598208761315267</v>
+      </c>
+      <c r="T9">
+        <v>0.01598208761315267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5101343333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.530403</v>
+      </c>
+      <c r="I10">
+        <v>0.01907359990996641</v>
+      </c>
+      <c r="J10">
+        <v>0.0190735999099664</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.03360366666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.100811</v>
+      </c>
+      <c r="O10">
+        <v>0.0235667354422325</v>
+      </c>
+      <c r="P10">
+        <v>0.0235667354422325</v>
+      </c>
+      <c r="Q10">
+        <v>0.01714238409255555</v>
+      </c>
+      <c r="R10">
+        <v>0.154281456833</v>
+      </c>
+      <c r="S10">
+        <v>0.0004495024830091679</v>
+      </c>
+      <c r="T10">
+        <v>0.0004495024830091677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5101343333333334</v>
+      </c>
+      <c r="H11">
+        <v>1.530403</v>
+      </c>
+      <c r="I11">
+        <v>0.01907359990996641</v>
+      </c>
+      <c r="J11">
+        <v>0.0190735999099664</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.151356333333333</v>
+      </c>
+      <c r="N11">
+        <v>3.454069</v>
+      </c>
+      <c r="O11">
+        <v>0.8074627800757513</v>
+      </c>
+      <c r="P11">
+        <v>0.8074627800757513</v>
+      </c>
+      <c r="Q11">
+        <v>0.5873463955341112</v>
+      </c>
+      <c r="R11">
+        <v>5.286117559807001</v>
+      </c>
+      <c r="S11">
+        <v>0.01540122200935408</v>
+      </c>
+      <c r="T11">
+        <v>0.01540122200935407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5101343333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.530403</v>
+      </c>
+      <c r="I12">
+        <v>0.01907359990996641</v>
+      </c>
+      <c r="J12">
+        <v>0.0190735999099664</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.009467333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.028402</v>
+      </c>
+      <c r="O12">
+        <v>0.00663957722897588</v>
+      </c>
+      <c r="P12">
+        <v>0.00663957722897588</v>
+      </c>
+      <c r="Q12">
+        <v>0.004829611778444444</v>
+      </c>
+      <c r="R12">
+        <v>0.043466506006</v>
+      </c>
+      <c r="S12">
+        <v>0.0001266406396368094</v>
+      </c>
+      <c r="T12">
+        <v>0.0001266406396368093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5101343333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.530403</v>
+      </c>
+      <c r="I13">
+        <v>0.01907359990996641</v>
+      </c>
+      <c r="J13">
+        <v>0.0190735999099664</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2314666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.6944</v>
+      </c>
+      <c r="O13">
+        <v>0.1623309072530403</v>
+      </c>
+      <c r="P13">
+        <v>0.1623309072530403</v>
+      </c>
+      <c r="Q13">
+        <v>0.1180790936888889</v>
+      </c>
+      <c r="R13">
+        <v>1.0627118432</v>
+      </c>
+      <c r="S13">
+        <v>0.003096234777966356</v>
+      </c>
+      <c r="T13">
+        <v>0.003096234777966354</v>
       </c>
     </row>
   </sheetData>
